--- a/InputData/ccs/CSA/Carbon Sequestration Amounts.xlsx
+++ b/InputData/ccs/CSA/Carbon Sequestration Amounts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>International Energy Agency</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Emissions Reductions tab, "Download data files" button, in Excel "EmissionsTech web" tab, Mexico, CCS</t>
+  </si>
+  <si>
+    <t>Linearized (to eliminate stair step pattern from limited number of decimal places in IEA data)</t>
   </si>
 </sst>
 </file>
@@ -186,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -212,6 +215,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -628,7 +637,8 @@
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
     </row>
@@ -653,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,26 +843,44 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="20">
+        <v>2015</v>
+      </c>
+      <c r="C8" s="20">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2045</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="20">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="20">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="20">
+        <f>K4</f>
+        <v>0.03</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="17"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -867,77 +895,128 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="J1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="K1">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="L1">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="M1">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="N1">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="O1">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="P1">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="Q1">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="R1">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="S1">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -995,7 +1074,57 @@
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2" s="8"/>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1007,150 +1136,269 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38.26953125" customWidth="1"/>
-    <col min="2" max="19" width="9.54296875" customWidth="1"/>
+    <col min="2" max="16" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="J1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="K1">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="L1">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="M1">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="N1">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="O1">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="P1">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="Q1">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="R1">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="S1">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8">
+        <f>TREND('ETP data'!$B9:$C9,'ETP data'!$B$8:$C$8,B$1)*10^9</f>
         <v>0</v>
       </c>
       <c r="C2" s="8">
+        <f>TREND('ETP data'!$B9:$C9,'ETP data'!$B$8:$C$8,C$1)*10^9</f>
         <v>0</v>
       </c>
       <c r="D2" s="8">
-        <f>'ETP data'!E4*10^9</f>
+        <f>TREND('ETP data'!$B9:$C9,'ETP data'!$B$8:$C$8,D$1)*10^9</f>
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <f>($I$2-$D$2)/COUNT($E$1:$I$1)+D2</f>
+        <f>TREND('ETP data'!$B9:$C9,'ETP data'!$B$8:$C$8,E$1)*10^9</f>
         <v>0</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:H2" si="0">($I$2-$D$2)/COUNT($E$1:$I$1)+E2</f>
+        <f>TREND('ETP data'!$B9:$C9,'ETP data'!$B$8:$C$8,F$1)*10^9</f>
         <v>0</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" si="0"/>
+        <f>TREND('ETP data'!$B9:$C9,'ETP data'!$B$8:$C$8,G$1)*10^9</f>
         <v>0</v>
       </c>
       <c r="H2" s="8">
-        <f t="shared" si="0"/>
+        <f>TREND('ETP data'!$B9:$C9,'ETP data'!$B$8:$C$8,H$1)*10^9</f>
         <v>0</v>
       </c>
       <c r="I2" s="8">
-        <f>'ETP data'!F4*10^9</f>
+        <f>TREND('ETP data'!$B9:$C9,'ETP data'!$B$8:$C$8,I$1)*10^9</f>
         <v>0</v>
       </c>
       <c r="J2" s="8">
-        <f>($N$2-$I$2)/COUNT($J$1:$N$1)+I2</f>
+        <f>TREND('ETP data'!$B9:$C9,'ETP data'!$B$8:$C$8,J$1)*10^9</f>
         <v>0</v>
       </c>
       <c r="K2" s="8">
-        <f t="shared" ref="K2:M2" si="1">($N$2-$I$2)/COUNT($J$1:$N$1)+J2</f>
+        <f>TREND('ETP data'!$B9:$C9,'ETP data'!$B$8:$C$8,K$1)*10^9</f>
         <v>0</v>
       </c>
       <c r="L2" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,L$1)*10^9</f>
+        <v>1500000.0000000568</v>
       </c>
       <c r="M2" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,M$1)*10^9</f>
+        <v>3000000.0000001136</v>
       </c>
       <c r="N2" s="8">
-        <f>'ETP data'!G4*10^9</f>
-        <v>0</v>
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,N$1)*10^9</f>
+        <v>4500000.0000001704</v>
       </c>
       <c r="O2" s="8">
-        <f>($S$2-$N$2)/COUNT($O$1:$S$1)+N2</f>
-        <v>2000000</v>
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,O$1)*10^9</f>
+        <v>5999999.999999783</v>
       </c>
       <c r="P2" s="8">
-        <f t="shared" ref="P2:R2" si="2">($S$2-$N$2)/COUNT($O$1:$S$1)+O2</f>
-        <v>4000000</v>
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,P$1)*10^9</f>
+        <v>7499999.9999998398</v>
       </c>
       <c r="Q2" s="8">
-        <f t="shared" si="2"/>
-        <v>6000000</v>
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,Q$1)*10^9</f>
+        <v>8999999.9999998976</v>
       </c>
       <c r="R2" s="8">
-        <f t="shared" si="2"/>
-        <v>8000000</v>
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,R$1)*10^9</f>
+        <v>10499999.999999953</v>
       </c>
       <c r="S2" s="8">
-        <f>'ETP data'!H4*10^9</f>
-        <v>10000000</v>
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,S$1)*10^9</f>
+        <v>12000000.000000011</v>
+      </c>
+      <c r="T2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,T$1)*10^9</f>
+        <v>13500000.000000067</v>
+      </c>
+      <c r="U2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,U$1)*10^9</f>
+        <v>15000000.000000125</v>
+      </c>
+      <c r="V2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,V$1)*10^9</f>
+        <v>16500000.000000181</v>
+      </c>
+      <c r="W2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,W$1)*10^9</f>
+        <v>17999999.999999795</v>
+      </c>
+      <c r="X2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,X$1)*10^9</f>
+        <v>19499999.999999851</v>
+      </c>
+      <c r="Y2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,Y$1)*10^9</f>
+        <v>20999999.999999907</v>
+      </c>
+      <c r="Z2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,Z$1)*10^9</f>
+        <v>22499999.999999963</v>
+      </c>
+      <c r="AA2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,AA$1)*10^9</f>
+        <v>24000000.000000022</v>
+      </c>
+      <c r="AB2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,AB$1)*10^9</f>
+        <v>25500000.000000078</v>
+      </c>
+      <c r="AC2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,AC$1)*10^9</f>
+        <v>27000000.000000134</v>
+      </c>
+      <c r="AD2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,AD$1)*10^9</f>
+        <v>28500000.00000019</v>
+      </c>
+      <c r="AE2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,AE$1)*10^9</f>
+        <v>29999999.999999806</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,AF$1)*10^9</f>
+        <v>31499999.999999862</v>
+      </c>
+      <c r="AG2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,AG$1)*10^9</f>
+        <v>32999999.999999918</v>
+      </c>
+      <c r="AH2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,AH$1)*10^9</f>
+        <v>34499999.999999978</v>
+      </c>
+      <c r="AI2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,AI$1)*10^9</f>
+        <v>36000000.00000003</v>
+      </c>
+      <c r="AJ2" s="8">
+        <f>TREND('ETP data'!$C9:$D9,'ETP data'!$C$8:$D$8,AJ$1)*10^9</f>
+        <v>37500000.000000089</v>
       </c>
     </row>
   </sheetData>
